--- a/Question_Set2/Programming skills/Django REST Framework (DRF).xlsx
+++ b/Question_Set2/Programming skills/Django REST Framework (DRF).xlsx
@@ -16,23 +16,72 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'Review the following code structure:class WorkingCenter(models.Model):\n  name = CharField(max_length=100)\n\nclass Employee(models.Model):\n  name = CharField(max_length=100)\n  last_name = CharField(max_length=100)  \n  working_center = models.ForeignKey(WorkingCenter)\n\nclass Contract(models.Model):\n  start_date = models.DateTimeField()\n  end_date = models.DateTimeField(null=True)\n  employee = models.ForeignKey(Employee)\nCan I execute the following code to access the list of contracts of an employee?employee = Employee.objects.get(id=1)\ncontracts = employee.contracts.all()', 'ques_type': 2, 'options': ['Yes, and the result will be a queryset.', 'It is not possible to access the contract list directly from an employee. To do so, it is necessary to execute the following line of code:contracts = Contract.objects.filter(employee=employee) \n', 'The code will fail, but changing the Contract model will make it work, as follows:employee = models.ForeignKey(Employee,  on_delete=models.CASCADE, related_name=\'contracts\')\n', 'No, the code will fail. The correct line of code is:contracts = employee.get_contracts.all() \nThe reason is that every Model implements generic getters to access linked models.'], 'score': "The code will fail, but changing the Contract model will make it work, as follows:employee = models.ForeignKey(Employee,  on_delete=models.CASCADE, related_name='contracts')"}, {'title': 'Select the existing fields for a ModelSerializer definition.', 'ques_type': 15, 'options': ['SerializerMethodField', 'CharField', 'BooleanField', 'IntegerField', 'StringField', 'MatrixField', 'DocumentField', 'ObjectField'], 'score': ['SerializerMethodField', 'CharField', 'BooleanField', 'IntegerField']}, {'title': 'Which methods could you override to change the behavior of a ModelViewSet view that creates a new object?', 'ques_type': 15, 'options': ['def perform_create(self, serializer): \n', 'def create(self, request, *args, **kwargs): \n', 'def post(self, request, *args, **kwargs): \n', 'def put(self, request, *args, **kwargs):\n'], 'score': ['def perform_create(self, serializer):', 'def create(self, request, *args, **kwargs):']}, {'title': 'Using the Django REST Framework, you are developing an API in which you have one endpoint to create an employee. To do so, your endpoint will expect the following JSON structure:{\n  name: "Employee name",\n  last_name: "Employee last name",\n  expertise: "Description of the expertise"\n}\nWhich component of DRF is responsible for validating every input field?', 'ques_type': 2, 'options': ['The serializer\t', 'The view', 'The model', 'The validation middleware'], 'score': 'The serializer'}]</t>
+    <t>questions = [
+    {
+        "title": "Review the following code structure:class WorkingCenter(models.Model):\n  name = CharField(max_length=100)\n\nclass Employee(models.Model):\n  name = CharField(max_length=100)\n  last_name = CharField(max_length=100)  \n  working_center = models.ForeignKey(WorkingCenter)\n\nclass Contract(models.Model):\n  start_date = models.DateTimeField()\n  end_date = models.DateTimeField(null=True)\n  employee = models.ForeignKey(Employee)\nCan I execute the following code to access the list of contracts of an employee?employee = Employee.objects.get(id=1)\ncontracts = employee.contracts.all()",
+        "ques_type": 2,
+        "options": [
+            "Yes, and the result will be a queryset.",
+            "It is not possible to access the contract list directly from an employee. To do so, it is necessary to execute the following line of code:contracts = Contract.objects.filter(employee=employee) \n",
+            "The code will fail, but changing the Contract model will make it work, as follows:employee = models.ForeignKey(Employee,  on_delete=models.CASCADE, related_name='contracts')\n",
+            "No, the code will fail. The correct line of code is:contracts = employee.get_contracts.all() \nThe reason is that every Model implements generic getters to access linked models."
+        ],
+        "score": "The code will fail, but changing the Contract model will make it work, as follows:employee = models.ForeignKey(Employee,  on_delete=models.CASCADE, related_name='contracts')"
+    },
+    {
+        "title": "Select the existing fields for a ModelSerializer definition.",
+        "ques_type": 15,
+        "options": [
+            "SerializerMethodField",
+            "CharField",
+            "BooleanField",
+            "IntegerField",
+            "StringField",
+            "MatrixField",
+            "DocumentField",
+            "ObjectField"
+        ],
+        "score": [
+            "SerializerMethodField",
+            "CharField",
+            "BooleanField",
+            "IntegerField"
+        ]
+    },
+    {
+        "title": "Which methods could you override to change the behavior of a ModelViewSet view that creates a new object?",
+        "ques_type": 15,
+        "options": [
+            "def perform_create(self, serializer): \n",
+            "def create(self, request, *args, **kwargs): \n",
+            "def post(self, request, *args, **kwargs): \n",
+            "def put(self, request, *args, **kwargs):\n"
+        ],
+        "score": [
+            "def perform_create(self, serializer):",
+            "def create(self, request, *args, **kwargs):"
+        ]
+    },
+    {
+        "title": "Using the Django REST Framework, you are developing an API in which you have one endpoint to create an employee. To do so, your endpoint will expect the following JSON structure:{\n  name: \"Employee name\",\n  last_name: \"Employee last name\",\n  expertise: \"Description of the expertise\"\n}\nWhich component of DRF is responsible for validating every input field?",
+        "ques_type": 2,
+        "options": [
+            "The serializer\t",
+            "The view",
+            "The model",
+            "The validation middleware"
+        ],
+        "score": "The serializer"
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +97,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +105,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +405,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
